--- a/odds/Operators Football League 2025 Betting Odds.xlsx
+++ b/odds/Operators Football League 2025 Betting Odds.xlsx
@@ -36,12 +36,12 @@
     <t xml:space="preserve">Hunks of Hanet </t>
   </si>
   <si>
+    <t>Ler of the Rings</t>
+  </si>
+  <si>
     <t>Mhoney Hurts So Good</t>
   </si>
   <si>
-    <t>Ler of the Rings</t>
-  </si>
-  <si>
     <t>Hall Pass</t>
   </si>
   <si>
@@ -81,118 +81,118 @@
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.0%</t>
-  </si>
-  <si>
-    <t>98.1%</t>
-  </si>
-  <si>
-    <t>97.9%</t>
-  </si>
-  <si>
-    <t>95.5%</t>
-  </si>
-  <si>
-    <t>67.0%</t>
-  </si>
-  <si>
-    <t>25.0%</t>
-  </si>
-  <si>
-    <t>13.3%</t>
+    <t>98.7%</t>
+  </si>
+  <si>
+    <t>98.2%</t>
+  </si>
+  <si>
+    <t>97.6%</t>
+  </si>
+  <si>
+    <t>96.6%</t>
+  </si>
+  <si>
+    <t>65.0%</t>
+  </si>
+  <si>
+    <t>25.6%</t>
+  </si>
+  <si>
+    <t>13.1%</t>
+  </si>
+  <si>
+    <t>5.2%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>-∞</t>
+  </si>
+  <si>
+    <t>-7592</t>
+  </si>
+  <si>
+    <t>-5456</t>
+  </si>
+  <si>
+    <t>-4067</t>
+  </si>
+  <si>
+    <t>-2841</t>
+  </si>
+  <si>
+    <t>-186</t>
+  </si>
+  <si>
+    <t>+291</t>
+  </si>
+  <si>
+    <t>+663</t>
+  </si>
+  <si>
+    <t>+1823</t>
+  </si>
+  <si>
+    <t>+∞</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>74.3%</t>
+  </si>
+  <si>
+    <t>10.6%</t>
+  </si>
+  <si>
+    <t>5.5%</t>
+  </si>
+  <si>
+    <t>5.0%</t>
+  </si>
+  <si>
+    <t>4.5%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>-289</t>
+  </si>
+  <si>
+    <t>+843</t>
+  </si>
+  <si>
+    <t>+1718</t>
+  </si>
+  <si>
+    <t>+1900</t>
+  </si>
+  <si>
+    <t>+2122</t>
+  </si>
+  <si>
+    <t>+99900</t>
+  </si>
+  <si>
+    <t>95.0%</t>
   </si>
   <si>
     <t>4.2%</t>
   </si>
   <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>-∞</t>
-  </si>
-  <si>
-    <t>-9900</t>
-  </si>
-  <si>
-    <t>-5163</t>
-  </si>
-  <si>
-    <t>-4662</t>
-  </si>
-  <si>
-    <t>-2122</t>
-  </si>
-  <si>
-    <t>-203</t>
-  </si>
-  <si>
-    <t>+300</t>
-  </si>
-  <si>
-    <t>+652</t>
+    <t>0.7%</t>
+  </si>
+  <si>
+    <t>-1900</t>
   </si>
   <si>
     <t>+2281</t>
   </si>
   <si>
-    <t>+∞</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>75.1%</t>
-  </si>
-  <si>
-    <t>10.8%</t>
-  </si>
-  <si>
-    <t>5.7%</t>
-  </si>
-  <si>
-    <t>5.1%</t>
-  </si>
-  <si>
-    <t>3.3%</t>
-  </si>
-  <si>
-    <t>-302</t>
-  </si>
-  <si>
-    <t>+826</t>
-  </si>
-  <si>
-    <t>+1654</t>
-  </si>
-  <si>
-    <t>+1861</t>
-  </si>
-  <si>
-    <t>+2930</t>
-  </si>
-  <si>
-    <t>96.1%</t>
-  </si>
-  <si>
-    <t>2.8%</t>
-  </si>
-  <si>
-    <t>1.0%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>-2464</t>
-  </si>
-  <si>
-    <t>+3471</t>
-  </si>
-  <si>
-    <t>+9900</t>
-  </si>
-  <si>
-    <t>+99900</t>
+    <t>+14186</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -617,7 +617,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -748,7 +748,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -762,7 +762,7 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -776,12 +776,12 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -790,12 +790,12 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -804,29 +804,29 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -851,10 +851,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -912,10 +912,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -926,10 +926,10 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -940,10 +940,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -954,15 +954,15 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>

--- a/odds/Operators Football League 2025 Betting Odds.xlsx
+++ b/odds/Operators Football League 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
   <si>
     <t>Record</t>
   </si>
@@ -30,79 +30,67 @@
     <t>Team</t>
   </si>
   <si>
+    <t>Mhoney Hurts So Good</t>
+  </si>
+  <si>
+    <t>Ler of the Rings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunks of Hanet </t>
+  </si>
+  <si>
     <t>Natural rack</t>
   </si>
   <si>
-    <t xml:space="preserve">Hunks of Hanet </t>
-  </si>
-  <si>
-    <t>Ler of the Rings</t>
-  </si>
-  <si>
-    <t>Mhoney Hurts So Good</t>
+    <t>Big Ballsy Bozos</t>
   </si>
   <si>
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>Big Ballsy Bozos</t>
-  </si>
-  <si>
     <t>Sacks in the City</t>
   </si>
   <si>
+    <t xml:space="preserve">Chicken’s Cougars </t>
+  </si>
+  <si>
     <t xml:space="preserve">Jockstrap jubilee </t>
   </si>
   <si>
     <t xml:space="preserve">Case Closed </t>
   </si>
   <si>
-    <t xml:space="preserve">Chicken’s Cougars </t>
-  </si>
-  <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>2-9</t>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>4-8</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>98.7%</t>
-  </si>
-  <si>
-    <t>98.2%</t>
-  </si>
-  <si>
-    <t>97.6%</t>
-  </si>
-  <si>
-    <t>96.6%</t>
-  </si>
-  <si>
-    <t>65.0%</t>
-  </si>
-  <si>
-    <t>25.6%</t>
-  </si>
-  <si>
-    <t>13.1%</t>
-  </si>
-  <si>
-    <t>5.2%</t>
+    <t>96.2%</t>
+  </si>
+  <si>
+    <t>96.0%</t>
+  </si>
+  <si>
+    <t>7.8%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -111,28 +99,13 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-7592</t>
-  </si>
-  <si>
-    <t>-5456</t>
-  </si>
-  <si>
-    <t>-4067</t>
-  </si>
-  <si>
-    <t>-2841</t>
-  </si>
-  <si>
-    <t>-186</t>
-  </si>
-  <si>
-    <t>+291</t>
-  </si>
-  <si>
-    <t>+663</t>
-  </si>
-  <si>
-    <t>+1823</t>
+    <t>-2532</t>
+  </si>
+  <si>
+    <t>-2400</t>
+  </si>
+  <si>
+    <t>+1182</t>
   </si>
   <si>
     <t>+∞</t>
@@ -141,58 +114,46 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>74.3%</t>
-  </si>
-  <si>
-    <t>10.6%</t>
-  </si>
-  <si>
-    <t>5.5%</t>
-  </si>
-  <si>
-    <t>5.0%</t>
-  </si>
-  <si>
-    <t>4.5%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>-289</t>
-  </si>
-  <si>
-    <t>+843</t>
-  </si>
-  <si>
-    <t>+1718</t>
-  </si>
-  <si>
-    <t>+1900</t>
-  </si>
-  <si>
-    <t>+2122</t>
-  </si>
-  <si>
-    <t>+99900</t>
-  </si>
-  <si>
-    <t>95.0%</t>
-  </si>
-  <si>
-    <t>4.2%</t>
-  </si>
-  <si>
-    <t>0.7%</t>
-  </si>
-  <si>
-    <t>-1900</t>
-  </si>
-  <si>
-    <t>+2281</t>
-  </si>
-  <si>
-    <t>+14186</t>
+    <t>90.4%</t>
+  </si>
+  <si>
+    <t>5.1%</t>
+  </si>
+  <si>
+    <t>3.2%</t>
+  </si>
+  <si>
+    <t>1.3%</t>
+  </si>
+  <si>
+    <t>-942</t>
+  </si>
+  <si>
+    <t>+1861</t>
+  </si>
+  <si>
+    <t>+3025</t>
+  </si>
+  <si>
+    <t>+7592</t>
+  </si>
+  <si>
+    <t>96.8%</t>
+  </si>
+  <si>
+    <t>2.8%</t>
+  </si>
+  <si>
+    <t>0.4%</t>
+  </si>
+  <si>
+    <t>-3025</t>
+  </si>
+  <si>
+    <t>+3471</t>
+  </si>
+  <si>
+    <t>+24900</t>
   </si>
 </sst>
 </file>
@@ -578,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -595,7 +556,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -603,13 +564,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -617,13 +578,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -631,13 +592,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -645,13 +606,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -659,13 +620,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -673,13 +634,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -687,13 +648,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -701,13 +662,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -739,142 +700,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -906,72 +867,72 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -979,69 +940,69 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/odds/Operators Football League 2025 Betting Odds.xlsx
+++ b/odds/Operators Football League 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
   <si>
     <t>Record</t>
   </si>
@@ -42,12 +42,12 @@
     <t>Natural rack</t>
   </si>
   <si>
+    <t>Hall Pass</t>
+  </si>
+  <si>
     <t>Big Ballsy Bozos</t>
   </si>
   <si>
-    <t>Hall Pass</t>
-  </si>
-  <si>
     <t>Sacks in the City</t>
   </si>
   <si>
@@ -60,37 +60,37 @@
     <t xml:space="preserve">Case Closed </t>
   </si>
   <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>4-8</t>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>4-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>96.2%</t>
-  </si>
-  <si>
-    <t>96.0%</t>
-  </si>
-  <si>
-    <t>7.8%</t>
+    <t>85.9%</t>
+  </si>
+  <si>
+    <t>81.2%</t>
+  </si>
+  <si>
+    <t>32.9%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -99,13 +99,13 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-2532</t>
-  </si>
-  <si>
-    <t>-2400</t>
-  </si>
-  <si>
-    <t>+1182</t>
+    <t>-609</t>
+  </si>
+  <si>
+    <t>-432</t>
+  </si>
+  <si>
+    <t>+204</t>
   </si>
   <si>
     <t>+∞</t>
@@ -114,46 +114,22 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>90.4%</t>
-  </si>
-  <si>
-    <t>5.1%</t>
-  </si>
-  <si>
-    <t>3.2%</t>
-  </si>
-  <si>
-    <t>1.3%</t>
-  </si>
-  <si>
-    <t>-942</t>
-  </si>
-  <si>
-    <t>+1861</t>
-  </si>
-  <si>
-    <t>+3025</t>
-  </si>
-  <si>
-    <t>+7592</t>
-  </si>
-  <si>
-    <t>96.8%</t>
-  </si>
-  <si>
-    <t>2.8%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>-3025</t>
-  </si>
-  <si>
-    <t>+3471</t>
-  </si>
-  <si>
-    <t>+24900</t>
+    <t>99.7%</t>
+  </si>
+  <si>
+    <t>0.2%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>-33233</t>
+  </si>
+  <si>
+    <t>+49900</t>
+  </si>
+  <si>
+    <t>+99900</t>
   </si>
 </sst>
 </file>
@@ -592,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -606,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -620,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -709,12 +685,12 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -723,12 +699,12 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -737,7 +713,7 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -748,10 +724,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -787,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -812,10 +788,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -826,7 +802,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -873,43 +849,43 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -923,10 +899,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -937,10 +913,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -951,10 +927,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -965,10 +941,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -979,10 +955,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -993,7 +969,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>

--- a/odds/Operators Football League 2025 Betting Odds.xlsx
+++ b/odds/Operators Football League 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="27">
   <si>
     <t>Record</t>
   </si>
@@ -42,94 +42,61 @@
     <t>Natural rack</t>
   </si>
   <si>
+    <t>Big Ballsy Bozos</t>
+  </si>
+  <si>
     <t>Hall Pass</t>
   </si>
   <si>
-    <t>Big Ballsy Bozos</t>
+    <t xml:space="preserve">Chicken’s Cougars </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jockstrap jubilee </t>
   </si>
   <si>
     <t>Sacks in the City</t>
   </si>
   <si>
-    <t xml:space="preserve">Chicken’s Cougars </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jockstrap jubilee </t>
-  </si>
-  <si>
     <t xml:space="preserve">Case Closed </t>
   </si>
   <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>2-11</t>
-  </si>
-  <si>
-    <t>4-9</t>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>5-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>85.9%</t>
-  </si>
-  <si>
-    <t>81.2%</t>
-  </si>
-  <si>
-    <t>32.9%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-609</t>
-  </si>
-  <si>
-    <t>-432</t>
-  </si>
-  <si>
-    <t>+204</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>99.7%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>-33233</t>
-  </si>
-  <si>
-    <t>+49900</t>
-  </si>
-  <si>
-    <t>+99900</t>
   </si>
 </sst>
 </file>
@@ -515,10 +482,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -529,10 +496,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -540,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -557,10 +524,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -574,7 +541,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -585,10 +552,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -596,13 +563,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -610,13 +577,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -624,13 +591,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -638,13 +605,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -682,10 +649,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -696,80 +663,80 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -777,41 +744,41 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -843,16 +810,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -863,10 +830,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -877,10 +844,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -888,27 +855,27 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -919,24 +886,24 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -944,41 +911,41 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
